--- a/data/pca/factorExposure/factorExposure_2010-07-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-07-22.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01517991613227947</v>
+        <v>-0.01655403427512392</v>
       </c>
       <c r="C2">
-        <v>-7.139399946624323e-05</v>
+        <v>-0.0007868824942201831</v>
       </c>
       <c r="D2">
-        <v>-0.009425351990917668</v>
+        <v>-0.007234517338684332</v>
       </c>
       <c r="E2">
-        <v>-0.01627784218940316</v>
+        <v>0.002646018014734819</v>
       </c>
       <c r="F2">
-        <v>-0.05431923288714098</v>
+        <v>0.0113753894392645</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1221449772053951</v>
+        <v>-0.09529884595571471</v>
       </c>
       <c r="C4">
-        <v>0.0900613823893089</v>
+        <v>-0.01825095585290369</v>
       </c>
       <c r="D4">
-        <v>0.001873377131631519</v>
+        <v>-0.07723638394430557</v>
       </c>
       <c r="E4">
-        <v>-0.1597821505873071</v>
+        <v>-0.02834432606151478</v>
       </c>
       <c r="F4">
-        <v>0.006182541117171999</v>
+        <v>-0.04170597468782136</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1255541898701957</v>
+        <v>-0.1501808644697997</v>
       </c>
       <c r="C6">
-        <v>0.05567385688438993</v>
+        <v>-0.02415852352022463</v>
       </c>
       <c r="D6">
-        <v>0.007194908924534927</v>
+        <v>0.01755276384464205</v>
       </c>
       <c r="E6">
-        <v>-0.04034687115255939</v>
+        <v>-0.0106940572731513</v>
       </c>
       <c r="F6">
-        <v>0.05784221376711462</v>
+        <v>-0.0384410580941635</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07059886807405111</v>
+        <v>-0.06342559965280745</v>
       </c>
       <c r="C7">
-        <v>0.08850463964869613</v>
+        <v>-0.0009533238656439723</v>
       </c>
       <c r="D7">
-        <v>-0.006149889873202669</v>
+        <v>-0.04967540011795681</v>
       </c>
       <c r="E7">
-        <v>-0.0206170508531928</v>
+        <v>-0.01522259658699524</v>
       </c>
       <c r="F7">
-        <v>-0.006641450115018239</v>
+        <v>-0.05764618644314157</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.04062292717428497</v>
+        <v>-0.06016085850992915</v>
       </c>
       <c r="C8">
-        <v>0.008190893244313926</v>
+        <v>0.01277832009100561</v>
       </c>
       <c r="D8">
-        <v>-0.007374022217507037</v>
+        <v>-0.02817427406038276</v>
       </c>
       <c r="E8">
-        <v>-0.1129578989467087</v>
+        <v>-0.01010170037770866</v>
       </c>
       <c r="F8">
-        <v>-0.04283164634635111</v>
+        <v>0.02072055397147913</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.09069537602777852</v>
+        <v>-0.07369261640725681</v>
       </c>
       <c r="C9">
-        <v>0.06384190901951843</v>
+        <v>-0.01515596357167871</v>
       </c>
       <c r="D9">
-        <v>0.01462289793084573</v>
+        <v>-0.07406627436522352</v>
       </c>
       <c r="E9">
-        <v>-0.1379422785729241</v>
+        <v>-0.02064742306910292</v>
       </c>
       <c r="F9">
-        <v>0.0226411048085195</v>
+        <v>-0.0626491526191733</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.1252896378699803</v>
+        <v>-0.09118195881947133</v>
       </c>
       <c r="C10">
-        <v>-0.1871545531790375</v>
+        <v>-0.01261916129519114</v>
       </c>
       <c r="D10">
-        <v>-0.01786461119306295</v>
+        <v>0.1731428028353161</v>
       </c>
       <c r="E10">
-        <v>0.05883424610660918</v>
+        <v>0.03374262711930688</v>
       </c>
       <c r="F10">
-        <v>0.03797637856194187</v>
+        <v>0.05125104943824773</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.06651139226353707</v>
+        <v>-0.08877944313907497</v>
       </c>
       <c r="C11">
-        <v>0.05665384542285267</v>
+        <v>-0.01429982537437122</v>
       </c>
       <c r="D11">
-        <v>0.03807705563633822</v>
+        <v>-0.1039647854070867</v>
       </c>
       <c r="E11">
-        <v>-0.1097862426161744</v>
+        <v>-0.04066956185068325</v>
       </c>
       <c r="F11">
-        <v>0.003110741671798107</v>
+        <v>-0.0291997869934921</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.07285808812496328</v>
+        <v>-0.09453504365559334</v>
       </c>
       <c r="C12">
-        <v>0.06586494107439914</v>
+        <v>-0.01200370732340678</v>
       </c>
       <c r="D12">
-        <v>0.04724958780842699</v>
+        <v>-0.1076133277822152</v>
       </c>
       <c r="E12">
-        <v>-0.1265967384567244</v>
+        <v>-0.03803065425624438</v>
       </c>
       <c r="F12">
-        <v>0.01568733856786849</v>
+        <v>-0.0324833772389103</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04405548363992515</v>
+        <v>-0.04416141848058879</v>
       </c>
       <c r="C13">
-        <v>0.04445448611984118</v>
+        <v>-0.004615860122854597</v>
       </c>
       <c r="D13">
-        <v>-0.02267273018589542</v>
+        <v>-0.03475514607080996</v>
       </c>
       <c r="E13">
-        <v>-0.07572516632193847</v>
+        <v>0.0141793516122563</v>
       </c>
       <c r="F13">
-        <v>0.003223126720482849</v>
+        <v>-0.02230809958858437</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.04803859715979771</v>
+        <v>-0.02240503688284444</v>
       </c>
       <c r="C14">
-        <v>0.03514838999772033</v>
+        <v>-0.015179180421251</v>
       </c>
       <c r="D14">
-        <v>0.01206324758741029</v>
+        <v>-0.02723105751411598</v>
       </c>
       <c r="E14">
-        <v>-0.06125520328483632</v>
+        <v>-0.01572263206879346</v>
       </c>
       <c r="F14">
-        <v>0.01704473737537273</v>
+        <v>-0.02676518879113825</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.02771887043440169</v>
+        <v>-0.03292470440630153</v>
       </c>
       <c r="C15">
-        <v>0.01681381942559943</v>
+        <v>-0.006324724627839563</v>
       </c>
       <c r="D15">
-        <v>-0.06736132352491699</v>
+        <v>-0.03661261620774645</v>
       </c>
       <c r="E15">
-        <v>-0.01743101149096808</v>
+        <v>-0.006598028758637241</v>
       </c>
       <c r="F15">
-        <v>-0.01886795561355564</v>
+        <v>-0.03535607159426809</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07900753852164367</v>
+        <v>-0.07652371019538244</v>
       </c>
       <c r="C16">
-        <v>0.07242123049613147</v>
+        <v>-0.00610636154052858</v>
       </c>
       <c r="D16">
-        <v>0.03479291765751873</v>
+        <v>-0.1067879074075968</v>
       </c>
       <c r="E16">
-        <v>-0.1067661641984529</v>
+        <v>-0.05645697579208984</v>
       </c>
       <c r="F16">
-        <v>0.02031267140115657</v>
+        <v>-0.03710925983457861</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.01590044453904605</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.004207356810755874</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.02497289205877137</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.01082769008260864</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.0317000795027907</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.04275342979419251</v>
+        <v>-0.06194520642803369</v>
       </c>
       <c r="C20">
-        <v>0.02333571138413918</v>
+        <v>-0.003587065503608176</v>
       </c>
       <c r="D20">
-        <v>-0.03054097256617438</v>
+        <v>-0.06335455816855247</v>
       </c>
       <c r="E20">
-        <v>-0.06368199896201081</v>
+        <v>-0.05005547673865153</v>
       </c>
       <c r="F20">
-        <v>0.01829382683381454</v>
+        <v>-0.03439174119412062</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.03240580730024283</v>
+        <v>-0.03793028019800669</v>
       </c>
       <c r="C21">
-        <v>0.02284239236452992</v>
+        <v>-0.008231664101435074</v>
       </c>
       <c r="D21">
-        <v>0.01348666663307534</v>
+        <v>-0.03462723476583526</v>
       </c>
       <c r="E21">
-        <v>-0.04891770176630467</v>
+        <v>0.01361521373137187</v>
       </c>
       <c r="F21">
-        <v>0.01679378174126987</v>
+        <v>0.01499900571063119</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04825533388768067</v>
+        <v>-0.04259089385871219</v>
       </c>
       <c r="C22">
-        <v>0.0174854763915418</v>
+        <v>-0.0007094264941750149</v>
       </c>
       <c r="D22">
-        <v>-0.6545619661106007</v>
+        <v>0.001687958235778926</v>
       </c>
       <c r="E22">
-        <v>0.03101753977695633</v>
+        <v>-0.03613756901337453</v>
       </c>
       <c r="F22">
-        <v>0.08727023468567714</v>
+        <v>0.02694267547017384</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04881936131156813</v>
+        <v>-0.04262832521171937</v>
       </c>
       <c r="C23">
-        <v>0.01861499382589246</v>
+        <v>-0.0007323198875097397</v>
       </c>
       <c r="D23">
-        <v>-0.656771854449366</v>
+        <v>0.001508626516225053</v>
       </c>
       <c r="E23">
-        <v>0.02558623264215604</v>
+        <v>-0.03650107264558099</v>
       </c>
       <c r="F23">
-        <v>0.08629815778199489</v>
+        <v>0.02636286708838451</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.0772776029184908</v>
+        <v>-0.08221278375168772</v>
       </c>
       <c r="C24">
-        <v>0.06897562764191707</v>
+        <v>-0.005972746381614305</v>
       </c>
       <c r="D24">
-        <v>0.02753063355139164</v>
+        <v>-0.1090496782639764</v>
       </c>
       <c r="E24">
-        <v>-0.1067897849206832</v>
+        <v>-0.0439706425602864</v>
       </c>
       <c r="F24">
-        <v>0.01568349445118076</v>
+        <v>-0.02927863612330451</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.07653745812624024</v>
+        <v>-0.08689248037718267</v>
       </c>
       <c r="C25">
-        <v>0.05230971009295465</v>
+        <v>-0.008302122771970186</v>
       </c>
       <c r="D25">
-        <v>0.04644232908555182</v>
+        <v>-0.09410433089012146</v>
       </c>
       <c r="E25">
-        <v>-0.1133122525125225</v>
+        <v>-0.0257354987815076</v>
       </c>
       <c r="F25">
-        <v>0.01271687920527391</v>
+        <v>-0.03931168830625751</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.03920978517098888</v>
+        <v>-0.05659223715638823</v>
       </c>
       <c r="C26">
-        <v>0.02365909115300175</v>
+        <v>-0.01562980203222105</v>
       </c>
       <c r="D26">
-        <v>-0.01275322941959562</v>
+        <v>-0.027562368847719</v>
       </c>
       <c r="E26">
-        <v>-0.0740053517250555</v>
+        <v>-0.0245270751244338</v>
       </c>
       <c r="F26">
-        <v>0.07451233476826047</v>
+        <v>-0.004691738144413047</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.150363926189287</v>
+        <v>-0.1367803060195755</v>
       </c>
       <c r="C28">
-        <v>-0.2748479772094317</v>
+        <v>-0.009972204581079301</v>
       </c>
       <c r="D28">
-        <v>0.009111361565471598</v>
+        <v>0.2782443508856476</v>
       </c>
       <c r="E28">
-        <v>-0.02054893114011892</v>
+        <v>0.06560118798124194</v>
       </c>
       <c r="F28">
-        <v>3.272111499932992e-05</v>
+        <v>-0.0502015845206531</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0.04284791972438623</v>
+        <v>-0.02766419568344755</v>
       </c>
       <c r="C29">
-        <v>0.02968815460904397</v>
+        <v>-0.009436242189103754</v>
       </c>
       <c r="D29">
-        <v>0.01435796240528094</v>
+        <v>-0.02539710526087744</v>
       </c>
       <c r="E29">
-        <v>-0.05523497658606018</v>
+        <v>-0.007932711295448015</v>
       </c>
       <c r="F29">
-        <v>0.02063388067940723</v>
+        <v>0.00619465842063412</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.0863612655895056</v>
+        <v>-0.06697474516953035</v>
       </c>
       <c r="C30">
-        <v>0.05974314449806591</v>
+        <v>-0.008747658323105312</v>
       </c>
       <c r="D30">
-        <v>0.0147365649177802</v>
+        <v>-0.06995101458308287</v>
       </c>
       <c r="E30">
-        <v>-0.2348031156092681</v>
+        <v>-0.02084799437138982</v>
       </c>
       <c r="F30">
-        <v>0.1691901031022266</v>
+        <v>-0.1257710849487978</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02829159070987525</v>
+        <v>-0.0486509606444287</v>
       </c>
       <c r="C31">
-        <v>0.05463276657940461</v>
+        <v>-0.01529143436958412</v>
       </c>
       <c r="D31">
-        <v>-0.003996592702090086</v>
+        <v>-0.02920498306093382</v>
       </c>
       <c r="E31">
-        <v>-0.0416489799488158</v>
+        <v>-0.02648957062850522</v>
       </c>
       <c r="F31">
-        <v>-0.004295743279539546</v>
+        <v>0.002284931193206346</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>0.0593586213724084</v>
+        <v>-0.04795589420387533</v>
       </c>
       <c r="C32">
-        <v>0.0005380646492822786</v>
+        <v>-0.001197505907618037</v>
       </c>
       <c r="D32">
-        <v>0.03572103703846493</v>
+        <v>-0.02181747433441023</v>
       </c>
       <c r="E32">
-        <v>-0.08929694607745831</v>
+        <v>-0.02413278216692213</v>
       </c>
       <c r="F32">
-        <v>-0.03029669408398981</v>
+        <v>-0.007381580942145349</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09385095585969873</v>
+        <v>-0.09257438285536439</v>
       </c>
       <c r="C33">
-        <v>0.06516254692052641</v>
+        <v>-0.01150482879120752</v>
       </c>
       <c r="D33">
-        <v>0.02157175267846981</v>
+        <v>-0.0843958159851339</v>
       </c>
       <c r="E33">
-        <v>-0.0768194675674764</v>
+        <v>-0.04374765391878169</v>
       </c>
       <c r="F33">
-        <v>0.08047711976953047</v>
+        <v>-0.04428878972087226</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06817289796249448</v>
+        <v>-0.06943161785555427</v>
       </c>
       <c r="C34">
-        <v>0.05391075722690308</v>
+        <v>-0.01366760092535764</v>
       </c>
       <c r="D34">
-        <v>0.04575976356269387</v>
+        <v>-0.08877118579811835</v>
       </c>
       <c r="E34">
-        <v>-0.09200636589178653</v>
+        <v>-0.02617988999776176</v>
       </c>
       <c r="F34">
-        <v>0.01766377994531606</v>
+        <v>-0.05481930333399756</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0.0236646856617167</v>
+        <v>-0.02445945071075983</v>
       </c>
       <c r="C35">
-        <v>0.02621599270245322</v>
+        <v>-0.002495346951299406</v>
       </c>
       <c r="D35">
-        <v>0.006720102700075047</v>
+        <v>-0.009661687152717806</v>
       </c>
       <c r="E35">
-        <v>-0.02345356833463613</v>
+        <v>-0.01270204831689449</v>
       </c>
       <c r="F35">
-        <v>0.02568488869067804</v>
+        <v>-0.01399982164935934</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02979659106079588</v>
+        <v>-0.02665136541745914</v>
       </c>
       <c r="C36">
-        <v>0.020611530290931</v>
+        <v>-0.0072580928376264</v>
       </c>
       <c r="D36">
-        <v>-0.01402156301720327</v>
+        <v>-0.03861119775181277</v>
       </c>
       <c r="E36">
-        <v>-0.07711410622616736</v>
+        <v>-0.01632260432706039</v>
       </c>
       <c r="F36">
-        <v>0.03265165266278366</v>
+        <v>-0.01432548815270789</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>0.02778175561784934</v>
+        <v>-0.003334819046397027</v>
       </c>
       <c r="C38">
-        <v>0.05763334964869109</v>
+        <v>-0.000649053405085428</v>
       </c>
       <c r="D38">
-        <v>-0.01925471519642183</v>
+        <v>-0.003933278655543483</v>
       </c>
       <c r="E38">
-        <v>0.1038564229725745</v>
+        <v>-0.004667744897278891</v>
       </c>
       <c r="F38">
-        <v>0.06596164754986243</v>
+        <v>0.003748938065155194</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.09573311748150962</v>
+        <v>-0.1126791168646415</v>
       </c>
       <c r="C39">
-        <v>0.0713896983549418</v>
+        <v>-0.02018635131470249</v>
       </c>
       <c r="D39">
-        <v>0.1110095636534372</v>
+        <v>-0.1418340066148607</v>
       </c>
       <c r="E39">
-        <v>-0.1111568753798568</v>
+        <v>-0.04865135298491264</v>
       </c>
       <c r="F39">
-        <v>0.06055891726818434</v>
+        <v>-0.04161165194094786</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0.02841088947403153</v>
+        <v>-0.03755130989719555</v>
       </c>
       <c r="C40">
-        <v>0.06519386136251361</v>
+        <v>-0.007995770524024099</v>
       </c>
       <c r="D40">
-        <v>-0.0216700339413579</v>
+        <v>-0.02374580856874986</v>
       </c>
       <c r="E40">
-        <v>-0.09332250521410175</v>
+        <v>-0.002573513505505827</v>
       </c>
       <c r="F40">
-        <v>-0.0220046353713492</v>
+        <v>0.01405921489238574</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>0.03089877606497013</v>
+        <v>-0.02672072657374739</v>
       </c>
       <c r="C41">
-        <v>0.0265516655667276</v>
+        <v>-0.006815592017303945</v>
       </c>
       <c r="D41">
-        <v>0.02599844446150196</v>
+        <v>-0.01052803042935778</v>
       </c>
       <c r="E41">
-        <v>0.001404877242890327</v>
+        <v>-0.0105129964523008</v>
       </c>
       <c r="F41">
-        <v>0.008189505328349063</v>
+        <v>0.0130508113916903</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04786117711132345</v>
+        <v>-0.04348619634783409</v>
       </c>
       <c r="C43">
-        <v>0.05440010985621869</v>
+        <v>-0.007371548874161881</v>
       </c>
       <c r="D43">
-        <v>-0.00784779982238284</v>
+        <v>-0.02083062036342309</v>
       </c>
       <c r="E43">
-        <v>-0.01894465211526268</v>
+        <v>-0.02562803280963308</v>
       </c>
       <c r="F43">
-        <v>0.01502622590895899</v>
+        <v>0.01127754189743702</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>0.09601101034159748</v>
+        <v>-0.07431371727793586</v>
       </c>
       <c r="C44">
-        <v>0.0813144943787209</v>
+        <v>-0.02464596477580113</v>
       </c>
       <c r="D44">
-        <v>-0.06044410254558781</v>
+        <v>-0.09203235265352856</v>
       </c>
       <c r="E44">
-        <v>-0.1663872736537395</v>
+        <v>-0.06486366846917112</v>
       </c>
       <c r="F44">
-        <v>0.03146692760929098</v>
+        <v>-0.1865393792748065</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0.04330925975813849</v>
+        <v>-0.02465269483681604</v>
       </c>
       <c r="C46">
-        <v>0.0426131406155948</v>
+        <v>-0.004074137889544614</v>
       </c>
       <c r="D46">
-        <v>-0.045086056202929</v>
+        <v>-0.01000391900226877</v>
       </c>
       <c r="E46">
-        <v>-0.03459517234850382</v>
+        <v>-0.02215582430536651</v>
       </c>
       <c r="F46">
-        <v>0.0149157675868544</v>
+        <v>0.003788547371965048</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05147539729704063</v>
+        <v>-0.05310728220260965</v>
       </c>
       <c r="C47">
-        <v>0.04746823378539427</v>
+        <v>-0.003370899753246007</v>
       </c>
       <c r="D47">
-        <v>-0.0027611829136151</v>
+        <v>-0.01460371592876437</v>
       </c>
       <c r="E47">
-        <v>-0.01557556774516245</v>
+        <v>-0.02270654134106557</v>
       </c>
       <c r="F47">
-        <v>0.03951769943583573</v>
+        <v>0.04718481498651988</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04507803923307856</v>
+        <v>-0.04803197164428259</v>
       </c>
       <c r="C48">
-        <v>0.01435852191442471</v>
+        <v>-0.003413772055586539</v>
       </c>
       <c r="D48">
-        <v>0.00732490610531342</v>
+        <v>-0.0424602973523053</v>
       </c>
       <c r="E48">
-        <v>-0.08550262366200446</v>
+        <v>0.008815264152726741</v>
       </c>
       <c r="F48">
-        <v>0.0183277938887459</v>
+        <v>-0.02067188983645412</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2380550923032003</v>
+        <v>-0.2086483808439469</v>
       </c>
       <c r="C49">
-        <v>0.06140086938624371</v>
+        <v>-0.01732634678189424</v>
       </c>
       <c r="D49">
-        <v>0.03553950648408233</v>
+        <v>0.007052370671222918</v>
       </c>
       <c r="E49">
-        <v>0.3117670026423518</v>
+        <v>-0.04579004149728665</v>
       </c>
       <c r="F49">
-        <v>-0.05315855913388563</v>
+        <v>-0.03093534348308001</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.03787628444967968</v>
+        <v>-0.04872159064655828</v>
       </c>
       <c r="C50">
-        <v>0.04614733432955227</v>
+        <v>-0.01163118933250436</v>
       </c>
       <c r="D50">
-        <v>0.01263958627436954</v>
+        <v>-0.02808773976003947</v>
       </c>
       <c r="E50">
-        <v>-0.05486861525498463</v>
+        <v>-0.02951651997418516</v>
       </c>
       <c r="F50">
-        <v>0.05397988993560537</v>
+        <v>-0.005805606443992547</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0.03312762718680036</v>
+        <v>-0.003704166878679145</v>
       </c>
       <c r="C51">
-        <v>0.003529814198824561</v>
+        <v>-0.000850792306741276</v>
       </c>
       <c r="D51">
-        <v>-9.635967284557542e-05</v>
+        <v>0.001470220126448451</v>
       </c>
       <c r="E51">
-        <v>0.05677981201124606</v>
+        <v>-0.00179438386257109</v>
       </c>
       <c r="F51">
-        <v>-0.0533011630874059</v>
+        <v>-0.003891816626020332</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.01161694082849589</v>
+        <v>-0.1399919077795918</v>
       </c>
       <c r="C52">
-        <v>0.006225279085521443</v>
+        <v>-0.01222748595265197</v>
       </c>
       <c r="D52">
-        <v>0.02334218652749092</v>
+        <v>-0.05417830841384049</v>
       </c>
       <c r="E52">
-        <v>-0.00619978445407472</v>
+        <v>-0.01255701448189218</v>
       </c>
       <c r="F52">
-        <v>-0.03090460944480555</v>
+        <v>-0.02789532644142836</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>0.146100514671186</v>
+        <v>-0.171847718609334</v>
       </c>
       <c r="C53">
-        <v>0.06054789394859283</v>
+        <v>-0.01497144035911753</v>
       </c>
       <c r="D53">
-        <v>-0.00778192892388537</v>
+        <v>-0.021927633970833</v>
       </c>
       <c r="E53">
-        <v>0.09449152251054999</v>
+        <v>-0.0372444696342263</v>
       </c>
       <c r="F53">
-        <v>0.02359645029897009</v>
+        <v>-0.05422252213992326</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0.05693713100363051</v>
+        <v>-0.0220612436261701</v>
       </c>
       <c r="C54">
-        <v>0.03235442616320942</v>
+        <v>-0.01296340646858941</v>
       </c>
       <c r="D54">
-        <v>-0.009693052308855296</v>
+        <v>-0.02807768857419705</v>
       </c>
       <c r="E54">
-        <v>-0.1531013679415127</v>
+        <v>-0.01367123453578115</v>
       </c>
       <c r="F54">
-        <v>0.01640548350343433</v>
+        <v>-0.002521117636286234</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0.08182267751682146</v>
+        <v>-0.1139030687595375</v>
       </c>
       <c r="C55">
-        <v>0.05064301835304408</v>
+        <v>-0.0142694044892321</v>
       </c>
       <c r="D55">
-        <v>0.03040007430647397</v>
+        <v>-0.01948568140122358</v>
       </c>
       <c r="E55">
-        <v>0.01570216695158505</v>
+        <v>-0.02852407157610902</v>
       </c>
       <c r="F55">
-        <v>0.002667715457671286</v>
+        <v>-0.04623137806384999</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0.133282187394608</v>
+        <v>-0.1764038317321361</v>
       </c>
       <c r="C56">
-        <v>0.08935263934598424</v>
+        <v>-0.01223593063602552</v>
       </c>
       <c r="D56">
-        <v>0.01177973684819848</v>
+        <v>-0.02127361093853917</v>
       </c>
       <c r="E56">
-        <v>0.0408673502903264</v>
+        <v>-0.04114662557973969</v>
       </c>
       <c r="F56">
-        <v>0.03081036495715845</v>
+        <v>-0.02313985164139272</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>0.03302352709235476</v>
+        <v>-0.04700060008283295</v>
       </c>
       <c r="C58">
-        <v>0.02931725953743657</v>
+        <v>-0.003956385212490353</v>
       </c>
       <c r="D58">
-        <v>-0.03590368262752036</v>
+        <v>-0.05776443503262856</v>
       </c>
       <c r="E58">
-        <v>-0.03061590058270132</v>
+        <v>-0.01177971489640589</v>
       </c>
       <c r="F58">
-        <v>0.007124842527322574</v>
+        <v>0.04272561944818743</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0.2129808420070641</v>
+        <v>-0.1713387397852569</v>
       </c>
       <c r="C59">
-        <v>-0.2440145194451118</v>
+        <v>-0.01186546235776983</v>
       </c>
       <c r="D59">
-        <v>0.04403999536433723</v>
+        <v>0.2345872429295226</v>
       </c>
       <c r="E59">
-        <v>0.008772128811400257</v>
+        <v>0.04572750744614135</v>
       </c>
       <c r="F59">
-        <v>-0.08389873925205403</v>
+        <v>0.029184003256427</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2363476595875807</v>
+        <v>-0.2393379982192209</v>
       </c>
       <c r="C60">
-        <v>0.1338379811087766</v>
+        <v>0.004547050854425499</v>
       </c>
       <c r="D60">
-        <v>0.07032845482456804</v>
+        <v>-0.0551058002356732</v>
       </c>
       <c r="E60">
-        <v>0.1446848435484615</v>
+        <v>-0.01303657414046644</v>
       </c>
       <c r="F60">
-        <v>-0.01225489792722061</v>
+        <v>0.05290044108382604</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>0.09364490873947251</v>
+        <v>-0.08673370814307686</v>
       </c>
       <c r="C61">
-        <v>0.06349551150548816</v>
+        <v>-0.0153605356584577</v>
       </c>
       <c r="D61">
-        <v>0.06778455833888099</v>
+        <v>-0.1020746882229455</v>
       </c>
       <c r="E61">
-        <v>-0.1206655852338325</v>
+        <v>-0.03326504954147089</v>
       </c>
       <c r="F61">
-        <v>0.0329908078696593</v>
+        <v>-0.02725874198077128</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0.134317903599338</v>
+        <v>-0.1681680956026702</v>
       </c>
       <c r="C62">
-        <v>0.08058054342152303</v>
+        <v>-0.01615870764229738</v>
       </c>
       <c r="D62">
-        <v>0.005304926185200075</v>
+        <v>-0.02081091403819398</v>
       </c>
       <c r="E62">
-        <v>0.04759090829810782</v>
+        <v>-0.03635741296657804</v>
       </c>
       <c r="F62">
-        <v>0.07887457065877168</v>
+        <v>-0.01086538252346148</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04280842156175288</v>
+        <v>-0.04297554255954639</v>
       </c>
       <c r="C63">
-        <v>0.01915230247341714</v>
+        <v>-0.004624939012338519</v>
       </c>
       <c r="D63">
-        <v>0.006740041740848635</v>
+        <v>-0.04445137161940945</v>
       </c>
       <c r="E63">
-        <v>-0.06175024356801728</v>
+        <v>-0.01351270398056102</v>
       </c>
       <c r="F63">
-        <v>0.04316229119639928</v>
+        <v>-0.01413378723874482</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09868011877384424</v>
+        <v>-0.1121084692295132</v>
       </c>
       <c r="C64">
-        <v>0.05931967676666169</v>
+        <v>-0.01212620243855584</v>
       </c>
       <c r="D64">
-        <v>0.004233004008502851</v>
+        <v>-0.03901999330200882</v>
       </c>
       <c r="E64">
-        <v>-0.05168879578792146</v>
+        <v>-0.01923805911232917</v>
       </c>
       <c r="F64">
-        <v>0.01555893868114012</v>
+        <v>-0.01634624908068426</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>0.117162318849269</v>
+        <v>-0.1417056295369426</v>
       </c>
       <c r="C65">
-        <v>0.03178788536056668</v>
+        <v>-0.03046796054675268</v>
       </c>
       <c r="D65">
-        <v>0.02341385296811736</v>
+        <v>0.04444084849711172</v>
       </c>
       <c r="E65">
-        <v>-0.06849571300956823</v>
+        <v>-0.00324186318594523</v>
       </c>
       <c r="F65">
-        <v>0.08001030073276859</v>
+        <v>-0.03965907099099226</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1097752740886599</v>
+        <v>-0.1351531166730324</v>
       </c>
       <c r="C66">
-        <v>0.1082617975937036</v>
+        <v>-0.01776613156264626</v>
       </c>
       <c r="D66">
-        <v>0.1107416238796506</v>
+        <v>-0.1291536672288183</v>
       </c>
       <c r="E66">
-        <v>-0.09726790162396445</v>
+        <v>-0.05965811245573371</v>
       </c>
       <c r="F66">
-        <v>0.08955615450591493</v>
+        <v>-0.04530275330504074</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>0.08350598879008043</v>
+        <v>-0.06610280303058376</v>
       </c>
       <c r="C67">
-        <v>0.07698733704220934</v>
+        <v>-0.004414472600181749</v>
       </c>
       <c r="D67">
-        <v>-0.02600975418030592</v>
+        <v>-0.05650295967121106</v>
       </c>
       <c r="E67">
-        <v>0.07863539773271487</v>
+        <v>-0.01915832189373291</v>
       </c>
       <c r="F67">
-        <v>0.03328756344818831</v>
+        <v>0.0442993907266906</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1275651374580011</v>
+        <v>-0.1107276157143802</v>
       </c>
       <c r="C68">
-        <v>-0.2723483142295283</v>
+        <v>-0.02085023330889731</v>
       </c>
       <c r="D68">
-        <v>0.02053942242507728</v>
+        <v>0.2757441641348604</v>
       </c>
       <c r="E68">
-        <v>-0.03230791535792042</v>
+        <v>0.08260021560980071</v>
       </c>
       <c r="F68">
-        <v>0.03078586935033486</v>
+        <v>-0.05273320903608557</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>0.04279960823384184</v>
+        <v>-0.04089777937101927</v>
       </c>
       <c r="C69">
-        <v>0.01813767133176688</v>
+        <v>-0.001078295993207622</v>
       </c>
       <c r="D69">
-        <v>-0.01370339413251736</v>
+        <v>-0.009322960931562286</v>
       </c>
       <c r="E69">
-        <v>0.01416123658500569</v>
+        <v>-0.02520271296424039</v>
       </c>
       <c r="F69">
-        <v>0.0569628514889979</v>
+        <v>0.01728546687003544</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>0.05924972670952264</v>
+        <v>-0.06564653851112541</v>
       </c>
       <c r="C70">
-        <v>0.06591669313967101</v>
+        <v>0.02697324282107802</v>
       </c>
       <c r="D70">
-        <v>0.05728956762994591</v>
+        <v>-0.003536392382046113</v>
       </c>
       <c r="E70">
-        <v>-0.02188652106114883</v>
+        <v>0.04606536516633009</v>
       </c>
       <c r="F70">
-        <v>0.07164199046077539</v>
+        <v>0.343904540367638</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1431811232481396</v>
+        <v>-0.1295855624669252</v>
       </c>
       <c r="C71">
-        <v>-0.2782535270479431</v>
+        <v>-0.02414930186793291</v>
       </c>
       <c r="D71">
-        <v>0.01056696013570763</v>
+        <v>0.2912029005174354</v>
       </c>
       <c r="E71">
-        <v>-0.04551355989150505</v>
+        <v>0.09182519855341911</v>
       </c>
       <c r="F71">
-        <v>0.02622435590422914</v>
+        <v>-0.05481577721781992</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1266473486967832</v>
+        <v>-0.1383651195385128</v>
       </c>
       <c r="C72">
-        <v>0.02845846146906192</v>
+        <v>-0.02396484502670086</v>
       </c>
       <c r="D72">
-        <v>0.01048263599556217</v>
+        <v>-0.01169816367709714</v>
       </c>
       <c r="E72">
-        <v>-0.01800607298377094</v>
+        <v>-0.04309715931254663</v>
       </c>
       <c r="F72">
-        <v>0.07562617529075501</v>
+        <v>-0.02534374899915004</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0.216790814818709</v>
+        <v>-0.2107793732119238</v>
       </c>
       <c r="C73">
-        <v>0.1313251783954561</v>
+        <v>-0.0117893246837014</v>
       </c>
       <c r="D73">
-        <v>0.127722131473823</v>
+        <v>-0.02612637794141272</v>
       </c>
       <c r="E73">
-        <v>0.4698162457608927</v>
+        <v>-0.07310965952578853</v>
       </c>
       <c r="F73">
-        <v>-0.1202623426978582</v>
+        <v>-0.0183422652407884</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>0.08316736696600735</v>
+        <v>-0.09379835779432537</v>
       </c>
       <c r="C74">
-        <v>0.08622065730503502</v>
+        <v>-0.01154994886541475</v>
       </c>
       <c r="D74">
-        <v>0.002254987019900706</v>
+        <v>-0.0303317337854701</v>
       </c>
       <c r="E74">
-        <v>0.05204159902844114</v>
+        <v>-0.05114517714404562</v>
       </c>
       <c r="F74">
-        <v>0.04755152205689225</v>
+        <v>-0.03899946021219708</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>0.08549414061502149</v>
+        <v>-0.1293476907396032</v>
       </c>
       <c r="C75">
-        <v>0.06208960936242144</v>
+        <v>-0.02560768278493228</v>
       </c>
       <c r="D75">
-        <v>0.003257814023896958</v>
+        <v>-0.041204020201271</v>
       </c>
       <c r="E75">
-        <v>0.01806459343322811</v>
+        <v>-0.05796711928808466</v>
       </c>
       <c r="F75">
-        <v>0.01511442023033652</v>
+        <v>-0.003735618297721257</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>0.08202474715224634</v>
+        <v>-0.009535766720047469</v>
       </c>
       <c r="C76">
-        <v>0.08156411761289389</v>
+        <v>-0.002116047116198653</v>
       </c>
       <c r="D76">
-        <v>-0.003368861695157907</v>
+        <v>-0.004593534526370258</v>
       </c>
       <c r="E76">
-        <v>0.05713838910574164</v>
+        <v>-0.009941120444435915</v>
       </c>
       <c r="F76">
-        <v>-0.009031953507889568</v>
+        <v>-0.003431131210627754</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>0.06816216902907563</v>
+        <v>-0.08140385104535225</v>
       </c>
       <c r="C77">
-        <v>0.01592904798494947</v>
+        <v>-0.0125076302380707</v>
       </c>
       <c r="D77">
-        <v>0.04483177167622005</v>
+        <v>-0.09681688793219753</v>
       </c>
       <c r="E77">
-        <v>-0.2965907464500553</v>
+        <v>-0.03202106978958768</v>
       </c>
       <c r="F77">
-        <v>-0.05799601354089069</v>
+        <v>-0.04445920217413128</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>0.2019696635504063</v>
+        <v>-0.1117860069154969</v>
       </c>
       <c r="C78">
-        <v>0.1300949147086772</v>
+        <v>-0.04471180352530091</v>
       </c>
       <c r="D78">
-        <v>-0.1665640738525663</v>
+        <v>-0.1161922916464558</v>
       </c>
       <c r="E78">
-        <v>-0.2382121391875458</v>
+        <v>-0.08778308327128911</v>
       </c>
       <c r="F78">
-        <v>-0.7059628561343811</v>
+        <v>-0.0803476919978031</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1292434239285787</v>
+        <v>-0.1621163382489297</v>
       </c>
       <c r="C79">
-        <v>0.07741775233689258</v>
+        <v>-0.01965118808938924</v>
       </c>
       <c r="D79">
-        <v>-0.01104703643750635</v>
+        <v>-0.02541395648987455</v>
       </c>
       <c r="E79">
-        <v>0.0165403585008101</v>
+        <v>-0.04723882091409728</v>
       </c>
       <c r="F79">
-        <v>0.04561917085446312</v>
+        <v>-0.002986210349657304</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>0.07272369200863306</v>
+        <v>-0.08096938695437078</v>
       </c>
       <c r="C80">
-        <v>0.04404410171703721</v>
+        <v>0.001335393935983676</v>
       </c>
       <c r="D80">
-        <v>0.08973284852732186</v>
+        <v>-0.05202370086866469</v>
       </c>
       <c r="E80">
-        <v>0.01731134230438842</v>
+        <v>-0.0251226861328366</v>
       </c>
       <c r="F80">
-        <v>0.01877855089542068</v>
+        <v>0.01112045091027698</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1203725658282694</v>
+        <v>-0.1215256644937344</v>
       </c>
       <c r="C81">
-        <v>0.04980613321674907</v>
+        <v>-0.02935804198517288</v>
       </c>
       <c r="D81">
-        <v>-0.01317374817510615</v>
+        <v>-0.03174753695787869</v>
       </c>
       <c r="E81">
-        <v>-0.0283820753677447</v>
+        <v>-0.05889322093138172</v>
       </c>
       <c r="F81">
-        <v>0.08837526864467474</v>
+        <v>0.00726722216949779</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1178432964693898</v>
+        <v>-0.1618697016205558</v>
       </c>
       <c r="C82">
-        <v>0.05764207665850102</v>
+        <v>-0.02009864851860775</v>
       </c>
       <c r="D82">
-        <v>0.002750384822785855</v>
+        <v>-0.02413432725741205</v>
       </c>
       <c r="E82">
-        <v>0.04059138922544842</v>
+        <v>-0.03442248744491484</v>
       </c>
       <c r="F82">
-        <v>0.0773969715213992</v>
+        <v>-0.04797799172028128</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>0.08733663979519779</v>
+        <v>-0.06670527506082098</v>
       </c>
       <c r="C83">
-        <v>0.08136529184560858</v>
+        <v>-0.004548626588079846</v>
       </c>
       <c r="D83">
-        <v>0.008678438192925098</v>
+        <v>-0.04615382849683998</v>
       </c>
       <c r="E83">
-        <v>0.01790955125996562</v>
+        <v>-0.003302500729856341</v>
       </c>
       <c r="F83">
-        <v>0.08102887078069182</v>
+        <v>0.02783746631760547</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>0.03632600762221545</v>
+        <v>-0.06064842820819591</v>
       </c>
       <c r="C84">
-        <v>-0.05626919601935204</v>
+        <v>-0.01200083623751295</v>
       </c>
       <c r="D84">
-        <v>0.03528496790055426</v>
+        <v>-0.05768390207335007</v>
       </c>
       <c r="E84">
-        <v>-0.119020498099652</v>
+        <v>0.00424318893287476</v>
       </c>
       <c r="F84">
-        <v>-0.1361355480973998</v>
+        <v>-0.01438868702287461</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1188849931371865</v>
+        <v>-0.1371934295701832</v>
       </c>
       <c r="C85">
-        <v>0.05656341486817259</v>
+        <v>-0.02503085475045704</v>
       </c>
       <c r="D85">
-        <v>0.006829298218431553</v>
+        <v>-0.02425627000386567</v>
       </c>
       <c r="E85">
-        <v>0.02782713016777492</v>
+        <v>-0.0402261790874707</v>
       </c>
       <c r="F85">
-        <v>0.05643044798421309</v>
+        <v>-0.03813041611130568</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>0.08854344323232634</v>
+        <v>-0.1000821416128142</v>
       </c>
       <c r="C86">
-        <v>0.01275728947526723</v>
+        <v>0.006531083307411389</v>
       </c>
       <c r="D86">
-        <v>-0.02170716647729323</v>
+        <v>-0.00892460126085374</v>
       </c>
       <c r="E86">
-        <v>-0.0324841504134684</v>
+        <v>-0.1265752555727723</v>
       </c>
       <c r="F86">
-        <v>-0.1644134275076621</v>
+        <v>0.8239501116849836</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1170056201659204</v>
+        <v>-0.1027232023508431</v>
       </c>
       <c r="C87">
-        <v>0.06648350542940215</v>
+        <v>-0.02602194183307792</v>
       </c>
       <c r="D87">
-        <v>-0.01795408516181311</v>
+        <v>-0.06798655765864051</v>
       </c>
       <c r="E87">
-        <v>-0.09085668404368198</v>
+        <v>0.05313681147423632</v>
       </c>
       <c r="F87">
-        <v>0.01669528850236553</v>
+        <v>-0.09424916302741274</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06139600388781595</v>
+        <v>-0.06063157603542979</v>
       </c>
       <c r="C88">
-        <v>0.0634116955679961</v>
+        <v>-0.003761155903717244</v>
       </c>
       <c r="D88">
-        <v>0.0357459020052155</v>
+        <v>-0.05787819412320495</v>
       </c>
       <c r="E88">
-        <v>-0.01151955752814113</v>
+        <v>-0.02381429216720136</v>
       </c>
       <c r="F88">
-        <v>0.01968563168638923</v>
+        <v>-0.007779391718025678</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>0.2337417596508509</v>
+        <v>-0.1318544161656827</v>
       </c>
       <c r="C89">
-        <v>-0.3692083669276582</v>
+        <v>-0.00362158172754174</v>
       </c>
       <c r="D89">
-        <v>-0.04341016749836698</v>
+        <v>0.2802674575971397</v>
       </c>
       <c r="E89">
-        <v>0.01376275947476125</v>
+        <v>0.08912428634742547</v>
       </c>
       <c r="F89">
-        <v>-0.03491209724281086</v>
+        <v>-0.03830079493570494</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>0.154402214192935</v>
+        <v>-0.1404909841283689</v>
       </c>
       <c r="C90">
-        <v>-0.2582027663865013</v>
+        <v>-0.02029010913964923</v>
       </c>
       <c r="D90">
-        <v>0.01454314171998719</v>
+        <v>0.2771538299566471</v>
       </c>
       <c r="E90">
-        <v>-0.008012429387871028</v>
+        <v>0.1038627282931069</v>
       </c>
       <c r="F90">
-        <v>-0.005952519421165938</v>
+        <v>-0.04306632596791612</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>0.07058422882747052</v>
+        <v>-0.1160717121740873</v>
       </c>
       <c r="C91">
-        <v>0.05765644826894335</v>
+        <v>-0.01566950657049486</v>
       </c>
       <c r="D91">
-        <v>-0.01249453729146255</v>
+        <v>-0.006095408304450952</v>
       </c>
       <c r="E91">
-        <v>0.007167886180030269</v>
+        <v>-0.05814580687129556</v>
       </c>
       <c r="F91">
-        <v>-0.01336816362791282</v>
+        <v>0.03286249810793723</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1706304974518645</v>
+        <v>-0.144476065835117</v>
       </c>
       <c r="C92">
-        <v>-0.2988584540013927</v>
+        <v>-0.01108133511816146</v>
       </c>
       <c r="D92">
-        <v>-0.02304526417256275</v>
+        <v>0.3133709711794349</v>
       </c>
       <c r="E92">
-        <v>-0.03674179322353378</v>
+        <v>0.0993652989107586</v>
       </c>
       <c r="F92">
-        <v>-0.03169793602102863</v>
+        <v>-0.03494540141049578</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1710699704205185</v>
+        <v>-0.1457594530714403</v>
       </c>
       <c r="C93">
-        <v>-0.3070465238601928</v>
+        <v>-0.01642165602826164</v>
       </c>
       <c r="D93">
-        <v>0.04410572309004032</v>
+        <v>0.2810253978390766</v>
       </c>
       <c r="E93">
-        <v>-0.01389073044921914</v>
+        <v>0.06993252577942978</v>
       </c>
       <c r="F93">
-        <v>0.04289220013176599</v>
+        <v>-0.03207965211844394</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1133400870922758</v>
+        <v>-0.1330822034984357</v>
       </c>
       <c r="C94">
-        <v>0.079054955821706</v>
+        <v>-0.02333750374420578</v>
       </c>
       <c r="D94">
-        <v>-0.01161779672149892</v>
+        <v>-0.05375198580965845</v>
       </c>
       <c r="E94">
-        <v>0.05440739200829004</v>
+        <v>-0.06132745330864896</v>
       </c>
       <c r="F94">
-        <v>7.55449199209649e-05</v>
+        <v>-0.02258889146381251</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1498357551297444</v>
+        <v>-0.1273729511013439</v>
       </c>
       <c r="C95">
-        <v>0.05764029440956585</v>
+        <v>-0.006676289251062864</v>
       </c>
       <c r="D95">
-        <v>-0.01290736527648977</v>
+        <v>-0.08587860139818401</v>
       </c>
       <c r="E95">
-        <v>-0.04550547718732242</v>
+        <v>-0.04118500114192427</v>
       </c>
       <c r="F95">
-        <v>-0.007643763443712141</v>
+        <v>0.009695719950071466</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.09419919175365217</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.9895009426095653</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.01074456995144195</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.06026136956444267</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.05078899247356759</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1138259524375614</v>
+        <v>-0.1865229587757072</v>
       </c>
       <c r="C97">
-        <v>-0.01710622260705408</v>
+        <v>0.01329666786428101</v>
       </c>
       <c r="D97">
-        <v>-0.03370845940246116</v>
+        <v>0.007091215350145733</v>
       </c>
       <c r="E97">
-        <v>-0.06849545272148477</v>
+        <v>-0.01291506276165761</v>
       </c>
       <c r="F97">
-        <v>0.5090944876991886</v>
+        <v>0.1705091637628191</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2571407908595679</v>
+        <v>-0.2079086747953204</v>
       </c>
       <c r="C98">
-        <v>0.1266937605982165</v>
+        <v>-0.007583504415255298</v>
       </c>
       <c r="D98">
-        <v>-0.05139164692592949</v>
+        <v>-0.01570432771518656</v>
       </c>
       <c r="E98">
-        <v>0.2633678003755216</v>
+        <v>0.08597126655013798</v>
       </c>
       <c r="F98">
-        <v>-0.04262975908536169</v>
+        <v>0.1446348049241908</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>0.07418364550403969</v>
+        <v>-0.05834483576056573</v>
       </c>
       <c r="C99">
-        <v>0.05678062175004242</v>
+        <v>0.003034719824142972</v>
       </c>
       <c r="D99">
-        <v>-0.0187028755502757</v>
+        <v>-0.03050016937926242</v>
       </c>
       <c r="E99">
-        <v>0.03579446338266987</v>
+        <v>-0.02291732123000307</v>
       </c>
       <c r="F99">
-        <v>-0.02410029489638713</v>
+        <v>-0.005687008973649642</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.1226558878904211</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.04674549036119093</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.321272223556119</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.9082686576335963</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.05509365845229685</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>0.04298227857000937</v>
+        <v>-0.02754105353611962</v>
       </c>
       <c r="C101">
-        <v>0.02919111376422954</v>
+        <v>-0.00935051601198857</v>
       </c>
       <c r="D101">
-        <v>0.01442951433530593</v>
+        <v>-0.02504554750576852</v>
       </c>
       <c r="E101">
-        <v>-0.05358439977188984</v>
+        <v>-0.008086773155100589</v>
       </c>
       <c r="F101">
-        <v>0.01779771131629704</v>
+        <v>0.008285921284925312</v>
       </c>
     </row>
     <row r="102" spans="1:6">
